--- a/observations/orbit_plans/mtp060/nomad_mtp060_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp060/nomad_mtp060_plan_generic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp060\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3540D47F-31C1-4282-A6DA-F4CEDBEC1474}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB8168B-B764-4C69-B6F4-27EDF46E8CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="520">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1577,6 +1577,9 @@
   </si>
   <si>
     <t>2022 NOV 26 12:09:42</t>
+  </si>
+  <si>
+    <t>H2O CO 3SUBD #2</t>
   </si>
 </sst>
 </file>
@@ -1926,16 +1929,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="F321" sqref="F321"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -2092,7 +2095,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>14</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2556,7 +2559,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>47</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2793,7 +2796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>14</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>14</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>14</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>14</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>14</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>14</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3458,7 +3461,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>14</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14</v>
       </c>
@@ -3486,7 +3489,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>14</v>
       </c>
@@ -3600,7 +3603,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>14</v>
       </c>
@@ -3611,7 +3614,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>14</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3702,7 +3705,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>14</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3742,7 +3745,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>14</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>28</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>14</v>
       </c>
@@ -3827,7 +3830,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3873,7 +3876,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>14</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14</v>
       </c>
@@ -3955,7 +3958,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>3</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>14</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4081,7 +4084,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>14</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>14</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>14</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>14</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>14</v>
       </c>
@@ -4171,7 +4174,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>14</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>3</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4311,7 +4314,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>14</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>14</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3</v>
       </c>
@@ -4379,7 +4382,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>14</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>14</v>
       </c>
@@ -4430,7 +4433,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>14</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14</v>
       </c>
@@ -4530,7 +4533,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4556,7 +4559,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>14</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>3</v>
       </c>
@@ -4701,7 +4704,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="148" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>14</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="149" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>14</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>14</v>
       </c>
@@ -4809,7 +4812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>3</v>
       </c>
@@ -4826,7 +4829,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>14</v>
       </c>
@@ -4840,7 +4843,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4863,7 +4866,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>14</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4903,7 +4906,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4935,7 +4938,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>14</v>
       </c>
@@ -4949,7 +4952,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>28</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>14</v>
       </c>
@@ -4980,7 +4983,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>14</v>
       </c>
@@ -5026,7 +5029,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5049,7 +5052,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>14</v>
       </c>
@@ -5098,7 +5101,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>14</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>3</v>
       </c>
@@ -5161,7 +5164,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5193,7 +5196,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>14</v>
       </c>
@@ -5207,7 +5210,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="172" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>14</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>14</v>
       </c>
@@ -5232,7 +5235,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5267,7 +5270,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5299,7 +5302,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>14</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
@@ -5345,7 +5348,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3</v>
       </c>
@@ -5362,7 +5365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>14</v>
       </c>
@@ -5376,7 +5379,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
@@ -5408,7 +5411,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3</v>
       </c>
@@ -5425,7 +5428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -5457,7 +5460,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>14</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -5552,7 +5555,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="187" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>14</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>14</v>
       </c>
@@ -5574,7 +5577,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -5678,7 +5681,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>14</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>14</v>
       </c>
@@ -5706,7 +5709,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>14</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>14</v>
       </c>
@@ -5833,7 +5836,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>14</v>
       </c>
@@ -5887,7 +5890,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5922,7 +5925,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>14</v>
       </c>
@@ -5968,7 +5971,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>14</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>14</v>
       </c>
@@ -6063,7 +6066,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -6127,7 +6130,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>14</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>14</v>
       </c>
@@ -6181,7 +6184,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>14</v>
       </c>
@@ -6253,7 +6256,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -6285,7 +6288,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>14</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -6331,7 +6334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1</v>
       </c>
@@ -6366,7 +6369,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="222" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>14</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="223" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>14</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1</v>
       </c>
@@ -6420,7 +6423,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>3</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1</v>
       </c>
@@ -6460,7 +6463,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>14</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>14</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>14</v>
       </c>
@@ -6592,7 +6595,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1</v>
       </c>
@@ -6627,7 +6630,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>14</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>14</v>
       </c>
@@ -6719,7 +6722,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1</v>
       </c>
@@ -6745,7 +6748,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>14</v>
       </c>
@@ -6759,7 +6762,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1</v>
       </c>
@@ -6791,7 +6794,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>14</v>
       </c>
@@ -6805,7 +6808,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1</v>
       </c>
@@ -6837,7 +6840,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>3</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1</v>
       </c>
@@ -6886,7 +6889,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>14</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1</v>
       </c>
@@ -6932,7 +6935,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>28</v>
       </c>
@@ -6958,7 +6961,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>14</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>14</v>
       </c>
@@ -7021,7 +7024,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1</v>
       </c>
@@ -7044,7 +7047,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="252" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>14</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>3</v>
       </c>
@@ -7072,7 +7075,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1</v>
       </c>
@@ -7104,7 +7107,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1</v>
       </c>
@@ -7136,7 +7139,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>3</v>
       </c>
@@ -7153,7 +7156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>1</v>
       </c>
@@ -7173,7 +7176,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="258" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>14</v>
       </c>
@@ -7184,7 +7187,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3</v>
       </c>
@@ -7201,7 +7204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1</v>
       </c>
@@ -7233,7 +7236,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>14</v>
       </c>
@@ -7247,7 +7250,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1</v>
       </c>
@@ -7279,7 +7282,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="263" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>14</v>
       </c>
@@ -7290,7 +7293,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1</v>
       </c>
@@ -7313,7 +7316,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>3</v>
       </c>
@@ -7330,7 +7333,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>14</v>
       </c>
@@ -7376,7 +7379,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1</v>
       </c>
@@ -7408,7 +7411,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>14</v>
       </c>
@@ -7457,7 +7460,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>14</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -7535,7 +7538,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -7567,7 +7570,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>3</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1</v>
       </c>
@@ -7607,7 +7610,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>14</v>
       </c>
@@ -7621,7 +7624,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>3</v>
       </c>
@@ -7638,7 +7641,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1</v>
       </c>
@@ -7670,7 +7673,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>14</v>
       </c>
@@ -7684,7 +7687,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>3</v>
       </c>
@@ -7765,7 +7768,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
@@ -7797,7 +7800,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>14</v>
       </c>
@@ -7811,7 +7814,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1</v>
       </c>
@@ -7843,7 +7846,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>3</v>
       </c>
@@ -7860,7 +7863,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1</v>
       </c>
@@ -7915,7 +7918,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>14</v>
       </c>
@@ -7929,7 +7932,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>3</v>
       </c>
@@ -7946,7 +7949,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1</v>
       </c>
@@ -7978,7 +7981,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>14</v>
       </c>
@@ -7992,7 +7995,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1</v>
       </c>
@@ -8059,7 +8062,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>14</v>
       </c>
@@ -8073,7 +8076,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1</v>
       </c>
@@ -8105,7 +8108,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>14</v>
       </c>
@@ -8119,7 +8122,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1</v>
       </c>
@@ -8154,7 +8157,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1</v>
       </c>
@@ -8186,7 +8189,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>14</v>
       </c>
@@ -8200,7 +8203,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -8232,7 +8235,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>3</v>
       </c>
@@ -8249,7 +8252,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>14</v>
       </c>
@@ -8263,7 +8266,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1</v>
       </c>
@@ -8295,7 +8298,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>14</v>
       </c>
@@ -8309,7 +8312,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1</v>
       </c>
@@ -8344,7 +8347,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
@@ -8376,7 +8379,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>14</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1</v>
       </c>
@@ -8422,7 +8425,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>3</v>
       </c>
@@ -8439,7 +8442,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>14</v>
       </c>
@@ -8453,7 +8456,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>14</v>
       </c>
@@ -8467,7 +8470,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
@@ -8499,7 +8502,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>3</v>
       </c>
@@ -8516,7 +8519,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1</v>
       </c>
@@ -8548,7 +8551,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>14</v>
       </c>
@@ -8562,7 +8565,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1</v>
       </c>
@@ -8594,7 +8597,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>3</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1</v>
       </c>
@@ -8643,7 +8646,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1</v>
       </c>
@@ -8675,7 +8678,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>14</v>
       </c>
@@ -8689,7 +8692,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1</v>
       </c>
@@ -8724,7 +8727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>14</v>
       </c>
@@ -8738,7 +8741,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1</v>
       </c>
@@ -8761,7 +8764,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1</v>
       </c>
@@ -8793,7 +8796,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>3</v>
       </c>
@@ -8810,9 +8813,18 @@
         <v>497</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>14</v>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>3</v>
+      </c>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="I328" t="s">
         <v>8</v>
@@ -8824,7 +8836,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1</v>
       </c>
@@ -8856,7 +8868,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>14</v>
       </c>
@@ -8870,7 +8882,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1</v>
       </c>
@@ -8902,7 +8914,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>14</v>
       </c>
@@ -8916,7 +8928,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1</v>
       </c>
@@ -8948,7 +8960,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1</v>
       </c>
@@ -8983,7 +8995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>14</v>
       </c>
@@ -8997,7 +9009,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1</v>
       </c>
@@ -9029,7 +9041,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>14</v>
       </c>
@@ -9043,7 +9055,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1</v>
       </c>
@@ -9069,7 +9081,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>14</v>
       </c>
@@ -9083,7 +9095,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>14</v>
       </c>
@@ -9097,7 +9109,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1</v>
       </c>
@@ -9129,7 +9141,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1</v>
       </c>
